--- a/dados/csv/2023/serie_temporal/dados/serie_por_modalidade_sub_2023.xlsx
+++ b/dados/csv/2023/serie_temporal/dados/serie_por_modalidade_sub_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ano</t>
   </si>
@@ -25,13 +25,34 @@
     <t>total_sucesso</t>
   </si>
   <si>
+    <t>particip</t>
+  </si>
+  <si>
+    <t>taxa_sucesso</t>
+  </si>
+  <si>
     <t>arrecadado_sucesso</t>
   </si>
   <si>
-    <t>taxa_sucesso</t>
-  </si>
-  <si>
     <t>media_sucesso</t>
+  </si>
+  <si>
+    <t>std_sucesso</t>
+  </si>
+  <si>
+    <t>min_sucesso</t>
+  </si>
+  <si>
+    <t>max_sucesso</t>
+  </si>
+  <si>
+    <t>apoio_medio</t>
+  </si>
+  <si>
+    <t>contribuicoes</t>
+  </si>
+  <si>
+    <t>media_contribuicoes</t>
   </si>
 </sst>
 </file>
@@ -39,8 +60,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="R$ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="164" formatCode="0.00%"/>
+    <numFmt numFmtId="165" formatCode="R$ #,##0.00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -395,18 +416,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -425,8 +446,29 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -436,17 +478,38 @@
       <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>15.15151515151515</v>
+      </c>
+      <c r="F2" s="2">
         <v>426.4616061876675</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.1515151515151515</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="G2" s="2">
         <v>85.29232123753351</v>
       </c>
+      <c r="H2">
+        <v>85.51030885495558</v>
+      </c>
+      <c r="I2">
+        <v>7.154956142241136</v>
+      </c>
+      <c r="J2">
+        <v>226.3900843036052</v>
+      </c>
+      <c r="K2">
+        <v>18.5418089646812</v>
+      </c>
+      <c r="L2">
+        <v>23</v>
+      </c>
+      <c r="M2">
+        <v>4.6</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -456,17 +519,38 @@
       <c r="C3">
         <v>14</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9.929078014184398</v>
+      </c>
+      <c r="F3" s="2">
         <v>4736.523382339164</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.09929078014184398</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="G3" s="2">
         <v>338.3230987385117</v>
       </c>
+      <c r="H3">
+        <v>458.6831840070852</v>
+      </c>
+      <c r="I3">
+        <v>27.62335886703489</v>
+      </c>
+      <c r="J3">
+        <v>1809.09852121176</v>
+      </c>
+      <c r="K3">
+        <v>16.91615493692558</v>
+      </c>
+      <c r="L3">
+        <v>280</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -476,17 +560,38 @@
       <c r="C4">
         <v>11</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="F4" s="2">
         <v>7327.98576013602</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.1466666666666667</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="G4" s="2">
         <v>666.180523648729</v>
       </c>
+      <c r="H4">
+        <v>1084.782975461776</v>
+      </c>
+      <c r="I4">
+        <v>26.58043580770418</v>
+      </c>
+      <c r="J4">
+        <v>3475.049171548047</v>
+      </c>
+      <c r="K4">
+        <v>20.99709386858459</v>
+      </c>
+      <c r="L4">
+        <v>349</v>
+      </c>
+      <c r="M4">
+        <v>31.72727272727273</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -496,17 +601,38 @@
       <c r="C5">
         <v>16</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>18.82352941176471</v>
+      </c>
+      <c r="F5" s="2">
         <v>3191.257392255826</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.1882352941176471</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="G5" s="2">
         <v>199.4535870159891</v>
       </c>
+      <c r="H5">
+        <v>234.097723686266</v>
+      </c>
+      <c r="I5">
+        <v>10.31772032536115</v>
+      </c>
+      <c r="J5">
+        <v>834.8528000913501</v>
+      </c>
+      <c r="K5">
+        <v>17.06554755217019</v>
+      </c>
+      <c r="L5">
+        <v>187</v>
+      </c>
+      <c r="M5">
+        <v>11.6875</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -516,17 +642,38 @@
       <c r="C6">
         <v>33</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30.8411214953271</v>
+      </c>
+      <c r="F6" s="2">
         <v>15024.86326411449</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.308411214953271</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="G6" s="2">
         <v>455.2988867913483</v>
       </c>
+      <c r="H6">
+        <v>1126.99584249591</v>
+      </c>
+      <c r="I6">
+        <v>3.799754022893506</v>
+      </c>
+      <c r="J6">
+        <v>5087.076865717208</v>
+      </c>
+      <c r="K6">
+        <v>20.44199083552992</v>
+      </c>
+      <c r="L6">
+        <v>735</v>
+      </c>
+      <c r="M6">
+        <v>22.27272727272727</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -536,17 +683,38 @@
       <c r="C7">
         <v>21</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="F7" s="2">
         <v>2767.438420781004</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="G7" s="2">
         <v>131.7827819419526</v>
       </c>
+      <c r="H7">
+        <v>138.1458157071481</v>
+      </c>
+      <c r="I7">
+        <v>5.763382152582333</v>
+      </c>
+      <c r="J7">
+        <v>538.4389998789497</v>
+      </c>
+      <c r="K7">
+        <v>24.70927161411611</v>
+      </c>
+      <c r="L7">
+        <v>112</v>
+      </c>
+      <c r="M7">
+        <v>5.333333333333333</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -556,17 +724,38 @@
       <c r="C8">
         <v>22</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
+        <v>31.88405797101449</v>
+      </c>
+      <c r="F8" s="2">
         <v>4495.625203875862</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.3188405797101449</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="G8" s="2">
         <v>204.3466001761755</v>
       </c>
+      <c r="H8">
+        <v>345.0624243778461</v>
+      </c>
+      <c r="I8">
+        <v>1.087396962410123</v>
+      </c>
+      <c r="J8">
+        <v>1594.029696524064</v>
+      </c>
+      <c r="K8">
+        <v>23.66118528355717</v>
+      </c>
+      <c r="L8">
+        <v>190</v>
+      </c>
+      <c r="M8">
+        <v>8.636363636363637</v>
+      </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -576,14 +765,35 @@
       <c r="C9">
         <v>30</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
+        <v>39.47368421052632</v>
+      </c>
+      <c r="F9" s="2">
         <v>5216.802725094768</v>
       </c>
-      <c r="E9" s="2">
-        <v>0.3947368421052632</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="G9" s="2">
         <v>173.8934241698256</v>
+      </c>
+      <c r="H9">
+        <v>195.9730930324503</v>
+      </c>
+      <c r="I9">
+        <v>2.022084306600051</v>
+      </c>
+      <c r="J9">
+        <v>657.0789958678034</v>
+      </c>
+      <c r="K9">
+        <v>15.71326122016496</v>
+      </c>
+      <c r="L9">
+        <v>332</v>
+      </c>
+      <c r="M9">
+        <v>11.06666666666667</v>
       </c>
     </row>
   </sheetData>
